--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B197" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,12 +22841,7 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC197" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22873,10 +22868,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B198" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22885,25 +22880,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22949,7 +22944,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22959,7 +22954,12 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -22986,10 +22986,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111635388</v>
+        <v>111635386</v>
       </c>
       <c r="B199" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -22998,25 +22998,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537869.363602677</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R199" t="n">
-        <v>7202616.983697344</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635389</v>
+        <v>111635388</v>
       </c>
       <c r="B200" t="n">
-        <v>89755</v>
+        <v>89686</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23110,25 +23110,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1506</v>
+        <v>658</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537849.9459284934</v>
+        <v>537869.363602677</v>
       </c>
       <c r="R200" t="n">
-        <v>7202574.760614324</v>
+        <v>7202616.983697344</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD200" t="b">
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635386</v>
+        <v>111635389</v>
       </c>
       <c r="B201" t="n">
-        <v>89845</v>
+        <v>89755</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23226,21 +23226,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1209</v>
+        <v>1506</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537869.960002815</v>
+        <v>537849.9459284934</v>
       </c>
       <c r="R201" t="n">
-        <v>7202636.919563191</v>
+        <v>7202574.760614324</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD201" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B197" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,7 +22841,12 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22868,10 +22873,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B198" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22880,25 +22885,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22944,7 +22949,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22954,12 +22959,7 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC198" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -22986,10 +22986,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111635386</v>
+        <v>111635389</v>
       </c>
       <c r="B199" t="n">
-        <v>89845</v>
+        <v>89755</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23002,21 +23002,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1209</v>
+        <v>1506</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537869.960002815</v>
+        <v>537849.9459284934</v>
       </c>
       <c r="R199" t="n">
-        <v>7202636.919563191</v>
+        <v>7202574.760614324</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635389</v>
+        <v>111635386</v>
       </c>
       <c r="B201" t="n">
-        <v>89755</v>
+        <v>89845</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23226,21 +23226,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1506</v>
+        <v>1209</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537849.9459284934</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R201" t="n">
-        <v>7202574.760614324</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD201" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B197" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,12 +22841,7 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC197" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22873,10 +22868,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B198" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22885,25 +22880,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22949,7 +22944,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22959,7 +22954,12 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD198" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22986,10 +22986,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111635389</v>
+        <v>111635386</v>
       </c>
       <c r="B199" t="n">
-        <v>89755</v>
+        <v>89845</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23002,21 +23002,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1506</v>
+        <v>1209</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537849.9459284934</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R199" t="n">
-        <v>7202574.760614324</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635388</v>
+        <v>111635389</v>
       </c>
       <c r="B200" t="n">
-        <v>89686</v>
+        <v>89755</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23110,25 +23110,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>658</v>
+        <v>1506</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537869.363602677</v>
+        <v>537849.9459284934</v>
       </c>
       <c r="R200" t="n">
-        <v>7202616.983697344</v>
+        <v>7202574.760614324</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD200" t="b">
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635386</v>
+        <v>111635388</v>
       </c>
       <c r="B201" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23222,25 +23222,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537869.960002815</v>
+        <v>537869.363602677</v>
       </c>
       <c r="R201" t="n">
-        <v>7202636.919563191</v>
+        <v>7202616.983697344</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B197" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,7 +22841,12 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22868,10 +22873,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B198" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22880,25 +22885,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22944,7 +22949,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22954,12 +22959,7 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC198" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -22986,10 +22986,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111635386</v>
+        <v>111635389</v>
       </c>
       <c r="B199" t="n">
-        <v>89845</v>
+        <v>89755</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -23002,21 +23002,21 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1209</v>
+        <v>1506</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537869.960002815</v>
+        <v>537849.9459284934</v>
       </c>
       <c r="R199" t="n">
-        <v>7202636.919563191</v>
+        <v>7202574.760614324</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635389</v>
+        <v>111635386</v>
       </c>
       <c r="B200" t="n">
-        <v>89755</v>
+        <v>89845</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23114,21 +23114,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1506</v>
+        <v>1209</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537849.9459284934</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R200" t="n">
-        <v>7202574.760614324</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD200" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B197" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,12 +22841,7 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC197" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22873,10 +22868,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B198" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22885,25 +22880,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22949,7 +22944,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22959,7 +22954,12 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635386</v>
+        <v>111635388</v>
       </c>
       <c r="B200" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23110,25 +23110,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537869.960002815</v>
+        <v>537869.363602677</v>
       </c>
       <c r="R200" t="n">
-        <v>7202636.919563191</v>
+        <v>7202616.983697344</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635388</v>
+        <v>111635386</v>
       </c>
       <c r="B201" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23222,25 +23222,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537869.363602677</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R201" t="n">
-        <v>7202616.983697344</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22755,10 +22755,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>111576474</v>
+        <v>111576491</v>
       </c>
       <c r="B197" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -22767,25 +22767,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -22831,7 +22831,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
@@ -22841,7 +22841,12 @@
       </c>
       <c r="AB197" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>Var. Delicata? Ska mikroskoperas.</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -22868,10 +22873,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>111576491</v>
+        <v>111576474</v>
       </c>
       <c r="B198" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -22880,25 +22885,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -22944,7 +22949,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -22954,12 +22959,7 @@
       </c>
       <c r="AB198" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC198" t="inlineStr">
-        <is>
-          <t>Var. Delicata? Ska mikroskoperas.</t>
+          <t>15:04</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635388</v>
+        <v>111635386</v>
       </c>
       <c r="B200" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23110,25 +23110,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537869.363602677</v>
+        <v>537869.960002815</v>
       </c>
       <c r="R200" t="n">
-        <v>7202616.983697344</v>
+        <v>7202636.919563191</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635386</v>
+        <v>111635388</v>
       </c>
       <c r="B201" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23222,25 +23222,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537869.960002815</v>
+        <v>537869.363602677</v>
       </c>
       <c r="R201" t="n">
-        <v>7202636.919563191</v>
+        <v>7202616.983697344</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -22986,10 +22986,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111635389</v>
+        <v>111635388</v>
       </c>
       <c r="B199" t="n">
-        <v>89755</v>
+        <v>89686</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -22998,25 +22998,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1506</v>
+        <v>658</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537849.9459284934</v>
+        <v>537869.363602677</v>
       </c>
       <c r="R199" t="n">
-        <v>7202574.760614324</v>
+        <v>7202616.983697344</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="AB199" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635388</v>
+        <v>111635389</v>
       </c>
       <c r="B201" t="n">
-        <v>89686</v>
+        <v>89755</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23222,25 +23222,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>658</v>
+        <v>1506</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537869.363602677</v>
+        <v>537849.9459284934</v>
       </c>
       <c r="R201" t="n">
-        <v>7202616.983697344</v>
+        <v>7202574.760614324</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD201" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>537869.363602677</v>
+        <v>537869</v>
       </c>
       <c r="R199" t="n">
-        <v>7202616.983697344</v>
+        <v>7202617</v>
       </c>
       <c r="S199" t="n">
         <v>25</v>
@@ -23098,10 +23098,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111635386</v>
+        <v>111635389</v>
       </c>
       <c r="B200" t="n">
-        <v>89845</v>
+        <v>89755</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -23114,21 +23114,21 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1209</v>
+        <v>1506</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -23138,10 +23138,10 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>537869.960002815</v>
+        <v>537850</v>
       </c>
       <c r="R200" t="n">
-        <v>7202636.919563191</v>
+        <v>7202575</v>
       </c>
       <c r="S200" t="n">
         <v>25</v>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AA200" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="AB200" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:18</t>
         </is>
       </c>
       <c r="AD200" t="b">
@@ -23210,10 +23210,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>111635389</v>
+        <v>111635386</v>
       </c>
       <c r="B201" t="n">
-        <v>89755</v>
+        <v>89845</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -23226,21 +23226,21 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1506</v>
+        <v>1209</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -23250,10 +23250,10 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>537849.9459284934</v>
+        <v>537870</v>
       </c>
       <c r="R201" t="n">
-        <v>7202574.760614324</v>
+        <v>7202637</v>
       </c>
       <c r="S201" t="n">
         <v>25</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD201" t="b">
@@ -23366,10 +23366,10 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>537957.0224703167</v>
+        <v>537957</v>
       </c>
       <c r="R202" t="n">
-        <v>7202567.214419398</v>
+        <v>7202567</v>
       </c>
       <c r="S202" t="n">
         <v>10</v>
@@ -23399,19 +23399,9 @@
           <t>2023-08-19</t>
         </is>
       </c>
-      <c r="Z202" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA202" t="inlineStr">
         <is>
           <t>2023-08-19</t>
-        </is>
-      </c>
-      <c r="AB202" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD202" t="b">

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY202"/>
+  <dimension ref="A1:AY203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23427,6 +23427,118 @@
       </c>
       <c r="AY202" t="inlineStr"/>
     </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>112331158</v>
+      </c>
+      <c r="B203" t="n">
+        <v>78733</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>Lill-Stalonberget, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>538813</v>
+      </c>
+      <c r="R203" t="n">
+        <v>7202740</v>
+      </c>
+      <c r="S203" t="n">
+        <v>25</v>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="AA203" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="AD203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT203" t="inlineStr"/>
+      <c r="AW203" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund</t>
+        </is>
+      </c>
+      <c r="AX203" t="inlineStr">
+        <is>
+          <t>Yasmine Kindlund, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY203" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29408-2022.xlsx
+++ b/artfynd/A 29408-2022.xlsx
@@ -23432,7 +23432,7 @@
         <v>112331158</v>
       </c>
       <c r="B203" t="n">
-        <v>78733</v>
+        <v>78747</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
